--- a/TestResults/AffilTypeGet.xlsx
+++ b/TestResults/AffilTypeGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,15 +47,18 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>Verify that the AffilType service is successfully retrieving the AffilType details AffilType Code which is special characters is passed in URI</t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Verify that the AffilType service is successfully retrieving all AffilType details when no parameter is passed in URI</t>
   </si>
   <si>
     <t>Get</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -65,93 +68,82 @@
     <t>200</t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"message":
-		{
-			"data":null,
-			"internalMessage":"Records Fetched Successfully",
-			"status":"Success"
-		}
-	},
-	"data":
-	[
-		{
-			"affilTypeId":"6229478996701019076",
-			"affilTypecode":"Teddt_d65",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"8866664609471286836",
-			"affilTypecode":"Tesra",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"6354472785814034002",
-			"affilTypecode":"EZ",
-			"affilTypeName":"Eurozone"
-		},
-		{
-			"affilTypeId":"267115961921823392",
-			"affilTypecode":"Tes",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"4408755667168657593",
-			"affilTypecode":"Teddt_d2",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"5523163205607496485",
-			"affilTypecode":"Tesas",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"8682906049451760013",
-			"affilTypecode":"Teddt_d55",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"4006023168689516996",
-			"affilTypecode":"Tesr",
-			"affilTypeName":null
-		},
-		{
-			"affilTypeId":"3892876516006483885",
-			"affilTypecode":"EU",
-			"affilTypeName":"European Union"
-		},
-		{
-			"affilTypeId":"3681458371956531115",
-			"affilTypecode":"Ttdd",
-			"affilTypeName":"Tamil Meo Ppp"
-		},
-		{
-			"affilTypeId":"5845442839408168712",
-			"affilTypecode":"Ttuy",
-			"affilTypeName":"Tamil Meo Ppl"
-		},
-		{
-			"affilTypeId":"2153111579976845886",
-			"affilTypecode":"UN",
-			"affilTypeName":"United Nations"
-		},
-		{
-			"affilTypeId":"6470001289961394877",
-			"affilTypecode":"IND",
-			"affilTypeName":"India_democratic"
-		}
-	]
-}</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Records Fetched Successfully</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Total number of records matching between DB &amp; Response: 7, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 5899303723994989864
+DB_affilTypeId: 5899303723994989864
+Response_affilTypecode: AffilTest
+DB_affilTypecode: AffilTest
+Response_affilTypeName: AffilSpecCharTest
+DB_affilTypeName: AffilSpecCharTest
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 7145499320264869844
+DB_affilTypeId: 7145499320264869844
+Response_affilTypecode: AffilGEt
+DB_affilTypecode: AffilGEt
+Response_affilTypeName: AffilSpecCharGet
+DB_affilTypeName: AffilSpecCharGet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 8431817954329834536
+DB_affilTypeId: 8431817954329834536
+Response_affilTypecode: UN
+DB_affilTypecode: UN
+Response_affilTypeName: United Nations
+DB_affilTypeName: United Nations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 5834185086091978906
+DB_affilTypeId: 5834185086091978906
+Response_affilTypecode: Test
+DB_affilTypecode: Test
+Response_affilTypeName: TestAffil
+DB_affilTypeName: TestAffil
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 7923726757499986134
+DB_affilTypeId: 7923726757499986134
+Response_affilTypecode: #@$%@
+DB_affilTypecode: #@$%@
+Response_affilTypeName: TestAffilSpecChar
+DB_affilTypeName: TestAffilSpecChar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 2224938410518144906
+DB_affilTypeId: 2224938410518144906
+Response_affilTypecode: EU
+DB_affilTypecode: EU
+Response_affilTypeName: European Union
+DB_affilTypeName: European Union
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affilTypeId: 367106168901350120
+DB_affilTypeId: 367106168901350120
+Response_affilTypecode: EZ
+DB_affilTypecode: EZ
+Response_affilTypeName: Eurozone
+DB_affilTypeName: Eurozone
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the AffilType service is successfully retrieving the AffilType details AffilType Code is passed in URI</t>
+  </si>
+  <si>
+    <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
 </sst>
 </file>
@@ -159,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="112">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -176,57 +168,552 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="4">
@@ -295,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -331,6 +818,303 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -345,17 +1129,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -407,19 +1191,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s" s="11">
         <v>18</v>
@@ -428,6 +1212,330 @@
         <v>19</v>
       </c>
       <c r="L2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>15</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>15</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>15</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>15</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>15</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>15</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>29</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>15</v>
+      </c>
+      <c r="L11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
